--- a/Base/Teams/Ravens/Distributions.xlsx
+++ b/Base/Teams/Ravens/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(3.5161496696650882, 1.7010311653826333, -1.1685607040500803, 2.6648360050047484)</t>
-  </si>
-  <si>
-    <t>NIG(1.1829169133699946, 0.9179435704922698, 4.871097887174278, 5.278601054485012)</t>
-  </si>
-  <si>
-    <t>NIG(0.5922210614318041, 0.45520374580533624, 0.7176287539355592, 2.8710124147810556)</t>
-  </si>
-  <si>
-    <t>JSU(-1.5711339617344506, 1.1640411922259999, 1.598926251859042, 4.576860207268202)</t>
+    <t>NCT(3.7060845695375324, 1.7903722316740134, -1.488474904563008, 2.6983668227749877)</t>
+  </si>
+  <si>
+    <t>NIG(1.4311093228592093, 1.1077452835581276, 4.4311343483391425, 5.6466350598876724)</t>
+  </si>
+  <si>
+    <t>NIG(0.6326850511674789, 0.4777104210397065, 0.7614956903478163, 2.9078787344582473)</t>
+  </si>
+  <si>
+    <t>NIG(1.7695756864138863, 1.5617853773619146, 2.7951688189683335, 5.573084384464874)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Ravens/Distributions.xlsx
+++ b/Base/Teams/Ravens/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(3.7060845695375324, 1.7903722316740134, -1.488474904563008, 2.6983668227749877)</t>
-  </si>
-  <si>
-    <t>NIG(1.4311093228592093, 1.1077452835581276, 4.4311343483391425, 5.6466350598876724)</t>
-  </si>
-  <si>
-    <t>NIG(0.6326850511674789, 0.4777104210397065, 0.7614956903478163, 2.9078787344582473)</t>
-  </si>
-  <si>
-    <t>NIG(1.7695756864138863, 1.5617853773619146, 2.7951688189683335, 5.573084384464874)</t>
+    <t>NCT(3.571697750037125, 1.7277406081550537, -1.3397403228059497, 2.712013543362315)</t>
+  </si>
+  <si>
+    <t>JSU(-1.2604755986936245, 1.2385011091665117, 2.9203189759484594, 4.953959280224883)</t>
+  </si>
+  <si>
+    <t>NIG(0.6599249431798118, 0.4961748667329957, 0.7937267782907582, 2.9050626429294253)</t>
+  </si>
+  <si>
+    <t>JSU(-1.5147080726508602, 1.1123131249149427, 1.8528419690548203, 4.080079847309561)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Ravens/Distributions.xlsx
+++ b/Base/Teams/Ravens/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NCT(3.571697750037125, 1.7277406081550537, -1.3397403228059497, 2.712013543362315)</t>
-  </si>
-  <si>
-    <t>JSU(-1.2604755986936245, 1.2385011091665117, 2.9203189759484594, 4.953959280224883)</t>
-  </si>
-  <si>
-    <t>NIG(0.6599249431798118, 0.4961748667329957, 0.7937267782907582, 2.9050626429294253)</t>
-  </si>
-  <si>
-    <t>JSU(-1.5147080726508602, 1.1123131249149427, 1.8528419690548203, 4.080079847309561)</t>
+    <t>NIG(1.1072256642246516, 0.6857061106036189, 1.74092127272603, 3.7181689313671775)</t>
+  </si>
+  <si>
+    <t>JSU(-1.2994241214309599, 1.238578647144636, 2.671559827800122, 4.733906329365339)</t>
+  </si>
+  <si>
+    <t>NIG(0.6813670780981159, 0.506189197501962, 0.9207467703822829, 2.8778293875144274)</t>
+  </si>
+  <si>
+    <t>JSU(-1.5385398959023293, 1.1378474706910915, 1.6161296508069531, 4.314194682566126)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Ravens/Distributions.xlsx
+++ b/Base/Teams/Ravens/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(1.1072256642246516, 0.6857061106036189, 1.74092127272603, 3.7181689313671775)</t>
-  </si>
-  <si>
-    <t>JSU(-1.2994241214309599, 1.238578647144636, 2.671559827800122, 4.733906329365339)</t>
-  </si>
-  <si>
-    <t>NIG(0.6813670780981159, 0.506189197501962, 0.9207467703822829, 2.8778293875144274)</t>
-  </si>
-  <si>
-    <t>JSU(-1.5385398959023293, 1.1378474706910915, 1.6161296508069531, 4.314194682566126)</t>
+    <t>NIG(1.0143007077573436, 0.6385915078721041, 1.793698772100036, 3.574898503866785)</t>
+  </si>
+  <si>
+    <t>NIG(1.6688922422492218, 1.321989838963093, 3.5409496724014566, 5.600176281744595)</t>
+  </si>
+  <si>
+    <t>NIG(0.6989422650214836, 0.5132186415647302, 0.9363410084649437, 2.9267378691672605)</t>
+  </si>
+  <si>
+    <t>JSU(-1.601379415942842, 1.1742660808338314, 1.4335939892558642, 4.407526933365681)</t>
   </si>
 </sst>
 </file>

--- a/Base/Teams/Ravens/Distributions.xlsx
+++ b/Base/Teams/Ravens/Distributions.xlsx
@@ -28,16 +28,16 @@
     <t>PA</t>
   </si>
   <si>
-    <t>NIG(1.0143007077573436, 0.6385915078721041, 1.793698772100036, 3.574898503866785)</t>
-  </si>
-  <si>
-    <t>NIG(1.6688922422492218, 1.321989838963093, 3.5409496724014566, 5.600176281744595)</t>
-  </si>
-  <si>
-    <t>NIG(0.6989422650214836, 0.5132186415647302, 0.9363410084649437, 2.9267378691672605)</t>
-  </si>
-  <si>
-    <t>JSU(-1.601379415942842, 1.1742660808338314, 1.4335939892558642, 4.407526933365681)</t>
+    <t>JSU(-0.8474283477698586, 1.1311697144454378, 1.1302973865769903, 3.0681335472858438)</t>
+  </si>
+  <si>
+    <t>JSU(-1.4149470145952099, 1.3154210372555823, 2.122257604719718, 4.998791519567386)</t>
+  </si>
+  <si>
+    <t>NIG(0.6723856071459912, 0.4974495385655613, 0.8987594262835561, 2.8429787326487426)</t>
+  </si>
+  <si>
+    <t>JSU(-1.5732717628558524, 1.1913249791836773, 1.4266563860350547, 4.519897210492166)</t>
   </si>
 </sst>
 </file>
